--- a/biology/Botanique/Goldfinch/Goldfinch.xlsx
+++ b/biology/Botanique/Goldfinch/Goldfinch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Goldfinch'[1] est un cultivar de rosier grimpant obtenu en 1907 par le rosiériste anglais George Paul[2]. Cette variété est très présente dans les catalogues internationaux grâce à sa floribondité généreuse et à sa résistance aux maladies du rosier. Il ne doit pas être confondu avec une variété plus récente (Ilsink, 1994) du même nom aux fleurs jaune vif.
+'Goldfinch' est un cultivar de rosier grimpant obtenu en 1907 par le rosiériste anglais George Paul. Cette variété est très présente dans les catalogues internationaux grâce à sa floribondité généreuse et à sa résistance aux maladies du rosier. Il ne doit pas être confondu avec une variété plus récente (Ilsink, 1994) du même nom aux fleurs jaune vif.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier vigoureux et compact peut atteindre 4,50 mètres de hauteur[3]. Il présente des masses de bouquets de petites fleurs semi-doubles (9-16 pétales[2]) de couleur jaune pâle au début, virant au crème ensuite. Ses fleurs en forme de rosettes sont discrètement parfumées[4]. La floraison unique et généreuse a lieu au mois de juin[5]. Ses rameaux sont peu épineux et présentent un feuillage vert clair.
-Il préfère une exposition ensoleillée, mais peut couvrir un mur face au nord. Il tolère des températures hivernales de l'ordre de -20°. Il est parfait pour les petits jardins et les espaces limités grâce à son aspect compact[6] et peut se laisser conduire en gros buisson.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier vigoureux et compact peut atteindre 4,50 mètres de hauteur. Il présente des masses de bouquets de petites fleurs semi-doubles (9-16 pétales) de couleur jaune pâle au début, virant au crème ensuite. Ses fleurs en forme de rosettes sont discrètement parfumées. La floraison unique et généreuse a lieu au mois de juin. Ses rameaux sont peu épineux et présentent un feuillage vert clair.
+Il préfère une exposition ensoleillée, mais peut couvrir un mur face au nord. Il tolère des températures hivernales de l'ordre de -20°. Il est parfait pour les petits jardins et les espaces limités grâce à son aspect compact et peut se laisser conduire en gros buisson.
 Il est issu du pollen du polyantha 'Hélène' (Lambert, 1897) et d'un semis non nommé.
 </t>
         </is>
